--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_36.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_36.xlsx
@@ -508,197 +508,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_1</t>
+          <t>model_1_36_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998396619134374</v>
+        <v>0.9505563393029463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8258363870252841</v>
+        <v>0.7424866155470327</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8163477059237071</v>
+        <v>0.7387994513813407</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997012291098623</v>
+        <v>0.94430169180296</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006674115658356875</v>
+        <v>0.1733252757797113</v>
       </c>
       <c r="G2" t="n">
-        <v>1.164632881911624</v>
+        <v>1.721993187577099</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6569136071390491</v>
+        <v>0.9342992171309418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0009936446025006016</v>
+        <v>0.1325808162754394</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06906333345542595</v>
+        <v>1.336892761862153</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02583430985793287</v>
+        <v>0.4163235229718726</v>
       </c>
       <c r="L2" t="n">
-        <v>1.010261637540005</v>
+        <v>0.9326724620295438</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02624117441335993</v>
+        <v>0.4228802022878392</v>
       </c>
       <c r="N2" t="n">
-        <v>144.6242073242126</v>
+        <v>37.50517048608312</v>
       </c>
       <c r="O2" t="n">
-        <v>285.959379867429</v>
+        <v>74.46975407430894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_0</t>
+          <t>model_1_36_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998222180980184</v>
+        <v>0.9505924325906037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8256460513335725</v>
+        <v>0.7417902644653112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8177219670428939</v>
+        <v>0.7387604207045833</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999752173617128</v>
+        <v>0.9422236768124223</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0007400219132122291</v>
+        <v>0.1731987503778938</v>
       </c>
       <c r="G3" t="n">
-        <v>1.165905657558514</v>
+        <v>1.726649690466972</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6519979547999559</v>
+        <v>0.9344388275985747</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008242146602183969</v>
+        <v>0.1375271949464656</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07353124383258816</v>
+        <v>1.338317197873345</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02720334378734036</v>
+        <v>0.4161715396058382</v>
       </c>
       <c r="L3" t="n">
-        <v>1.011378041726822</v>
+        <v>0.9327216103361412</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02763176925862374</v>
+        <v>0.4227258253357174</v>
       </c>
       <c r="N3" t="n">
-        <v>144.4176615195111</v>
+        <v>37.50663099557613</v>
       </c>
       <c r="O3" t="n">
-        <v>285.7528340627275</v>
+        <v>74.47121458380195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_3</t>
+          <t>model_1_36_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998457995397744</v>
+        <v>0.9505955337437905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.825495509714433</v>
+        <v>0.7417438723940528</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8152067466882835</v>
+        <v>0.7387383213849663</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996238181325694</v>
+        <v>0.9420120079403023</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006418635323529153</v>
+        <v>0.1731878792525814</v>
       </c>
       <c r="G4" t="n">
-        <v>1.16691233005888</v>
+        <v>1.726959914461093</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6609947521675413</v>
+        <v>0.9345178755834525</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001251096055437694</v>
+        <v>0.1380310384698001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06541451159518613</v>
+        <v>1.338371741277962</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02533502580130747</v>
+        <v>0.4161584785302126</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00986882945444</v>
+        <v>0.9327258331830338</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02573402713194364</v>
+        <v>0.4227125585612069</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7022696865965</v>
+        <v>37.50675653304653</v>
       </c>
       <c r="O4" t="n">
-        <v>286.0374422298129</v>
+        <v>74.47134012127235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_2</t>
+          <t>model_1_36_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998445041591965</v>
+        <v>0.9505077617348249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8254654606885063</v>
+        <v>0.7401143385500102</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8157085112171023</v>
+        <v>0.7389056555602646</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996460680281123</v>
+        <v>0.9370094783292253</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006472555885910822</v>
+        <v>0.1734955649588018</v>
       </c>
       <c r="G5" t="n">
-        <v>1.167113268033615</v>
+        <v>1.737856614779519</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6591999695419357</v>
+        <v>0.9339193309410037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001177097920605266</v>
+        <v>0.1499387513025193</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06667170098042589</v>
+        <v>1.331348852005217</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02544121830005557</v>
+        <v>0.4165279882058369</v>
       </c>
       <c r="L5" t="n">
-        <v>1.009951733811427</v>
+        <v>0.9326063138516765</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02584189205639346</v>
+        <v>0.4230878876448482</v>
       </c>
       <c r="N5" t="n">
-        <v>144.685538610015</v>
+        <v>37.5032064842381</v>
       </c>
       <c r="O5" t="n">
-        <v>286.0207111532313</v>
+        <v>74.46779007246391</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998474865105981</v>
+        <v>0.9504669052583707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8251227458376865</v>
+        <v>0.7397169334788773</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8151350045713028</v>
+        <v>0.7391080911576463</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999550597653571</v>
+        <v>0.9362402706905287</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006348414712628526</v>
+        <v>0.1736387877693499</v>
       </c>
       <c r="G6" t="n">
-        <v>1.169405003819104</v>
+        <v>1.740514064320067</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6612513695601343</v>
+        <v>0.9331952305470594</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001494610856078768</v>
+        <v>0.1517697257059594</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06220705470029828</v>
+        <v>1.32907906500574</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02519606062984554</v>
+        <v>0.4166998773330151</v>
       </c>
       <c r="L6" t="n">
-        <v>1.009760863321723</v>
+        <v>0.9325506795007602</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02559287339794538</v>
+        <v>0.4232624838539533</v>
       </c>
       <c r="N6" t="n">
-        <v>144.7242704835886</v>
+        <v>37.50155613972395</v>
       </c>
       <c r="O6" t="n">
-        <v>286.059443026805</v>
+        <v>74.46613972794977</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998486829984293</v>
+        <v>0.9504621638550745</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8250523247487483</v>
+        <v>0.7396982491812756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8151239049280039</v>
+        <v>0.7390980116387873</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999548226424762</v>
+        <v>0.9360777914731802</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006298610587226033</v>
+        <v>0.1736554088087773</v>
       </c>
       <c r="G7" t="n">
-        <v>1.169875909965093</v>
+        <v>1.740639006304162</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6612910723406207</v>
+        <v>0.9332312844015742</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001502497028343688</v>
+        <v>0.1521564812100525</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06136638873320863</v>
+        <v>1.328564909568122</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02509703286690686</v>
+        <v>0.4167198205134683</v>
       </c>
       <c r="L7" t="n">
-        <v>1.009684288100523</v>
+        <v>0.9325442231218036</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02549228604673187</v>
+        <v>0.4232827411195628</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7400226092235</v>
+        <v>37.50136470503136</v>
       </c>
       <c r="O7" t="n">
-        <v>286.0751951524399</v>
+        <v>74.46594829325717</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999849222362822</v>
+        <v>0.9504573941895332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.824803962398184</v>
+        <v>0.7396809413633685</v>
       </c>
       <c r="D8" t="n">
-        <v>0.814775542955589</v>
+        <v>0.7390855865153777</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9995070725105059</v>
+        <v>0.9359177411993206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006276159400388577</v>
+        <v>0.1736721289218044</v>
       </c>
       <c r="G8" t="n">
-        <v>1.17153671014692</v>
+        <v>1.740754743762203</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6625371429167608</v>
+        <v>0.9332757283475601</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001639365666227234</v>
+        <v>0.1525374550069285</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0573668834512466</v>
+        <v>1.328053536218192</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02505226416990803</v>
+        <v>0.4167398816069857</v>
       </c>
       <c r="L8" t="n">
-        <v>1.00964976877939</v>
+        <v>0.9325377282580878</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02544681228750758</v>
+        <v>0.4233031181552493</v>
       </c>
       <c r="N8" t="n">
-        <v>144.7471642780463</v>
+        <v>37.50117214773343</v>
       </c>
       <c r="O8" t="n">
-        <v>286.0823368212626</v>
+        <v>74.46575573595925</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998514965210036</v>
+        <v>0.9503495745911332</v>
       </c>
       <c r="C9" t="n">
-        <v>0.824680623282986</v>
+        <v>0.7387643417961438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8144341322882921</v>
+        <v>0.7396411276384701</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994788221853163</v>
+        <v>0.934517692446558</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006181496958949348</v>
+        <v>0.174050091664928</v>
       </c>
       <c r="G9" t="n">
-        <v>1.172361479378174</v>
+        <v>1.746884049288787</v>
       </c>
       <c r="H9" t="n">
-        <v>0.663758349077554</v>
+        <v>0.9312885899623837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001733319876862094</v>
+        <v>0.1558700446757209</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05469073327937732</v>
+        <v>1.322970682404403</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02486261643300911</v>
+        <v>0.4171931107591879</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009504222655771</v>
+        <v>0.9323909100815431</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0252541777883307</v>
+        <v>0.4237634852135358</v>
       </c>
       <c r="N9" t="n">
-        <v>144.7775598069429</v>
+        <v>37.49682427613247</v>
       </c>
       <c r="O9" t="n">
-        <v>286.1127323501593</v>
+        <v>74.46140786435829</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998479927256777</v>
+        <v>0.9503162629074796</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8246232115325918</v>
+        <v>0.7387140495809645</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8142894108393339</v>
+        <v>0.7395611668721473</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994234902928275</v>
+        <v>0.9336392298211801</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0006327343374793471</v>
+        <v>0.1741668661244758</v>
       </c>
       <c r="G10" t="n">
-        <v>1.172745392017416</v>
+        <v>1.747220353563266</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6642760093090454</v>
+        <v>0.9315746049871289</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001917341272963152</v>
+        <v>0.1579610829084813</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05450463704749508</v>
+        <v>1.31934052729944</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02515421112814606</v>
+        <v>0.4173330398188907</v>
       </c>
       <c r="L10" t="n">
-        <v>1.009728465556627</v>
+        <v>0.9323455494910361</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02555036480842829</v>
+        <v>0.4239056180160512</v>
       </c>
       <c r="N10" t="n">
-        <v>144.7309198238802</v>
+        <v>37.49548287719927</v>
       </c>
       <c r="O10" t="n">
-        <v>286.0660923670965</v>
+        <v>74.46006646542509</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998472830440268</v>
+        <v>0.9503108996944164</v>
       </c>
       <c r="C11" t="n">
-        <v>0.82450244643839</v>
+        <v>0.7387084873917507</v>
       </c>
       <c r="D11" t="n">
-        <v>0.813798439085797</v>
+        <v>0.7395497460450664</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993774146787808</v>
+        <v>0.9334984408956837</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006356884062973667</v>
+        <v>0.1741856669246217</v>
       </c>
       <c r="G11" t="n">
-        <v>1.173552948758416</v>
+        <v>1.74725754794815</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6660321868032694</v>
+        <v>0.9316154566233796</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0020705783744199</v>
+        <v>0.158296208180129</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05052738042308915</v>
+        <v>1.318706992407007</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02521286192199066</v>
+        <v>0.417355564147193</v>
       </c>
       <c r="L11" t="n">
-        <v>1.009773885182284</v>
+        <v>0.9323382463923968</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02560993929364666</v>
+        <v>0.4239284970800081</v>
       </c>
       <c r="N11" t="n">
-        <v>144.7216040837662</v>
+        <v>37.4952669947425</v>
       </c>
       <c r="O11" t="n">
-        <v>286.0567766269826</v>
+        <v>74.45985058296831</v>
       </c>
     </row>
   </sheetData>
